--- a/data/GoodCSVs/JamesWebb.xlsx
+++ b/data/GoodCSVs/JamesWebb.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\campaign-contributions\data\GoodCSVs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>state</t>
   </si>
@@ -216,6 +211,18 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>January_15</t>
+  </si>
+  <si>
+    <t>February_15</t>
+  </si>
+  <si>
+    <t>March_15</t>
+  </si>
+  <si>
+    <t>April_15</t>
   </si>
 </sst>
 </file>
@@ -533,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -541,86 +548,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
         <v>100</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
         <v>50</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
       <c r="K2" s="4">
         <v>0</v>
       </c>
@@ -628,25 +639,29 @@
         <v>0</v>
       </c>
       <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="4">
         <v>0</v>
       </c>
@@ -671,38 +686,42 @@
       <c r="M3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>250</v>
       </c>
-      <c r="E4" s="4">
+      <c r="I4" s="4">
         <v>500</v>
       </c>
-      <c r="F4" s="4">
+      <c r="J4" s="4">
         <v>200</v>
       </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
       <c r="K4" s="4">
         <v>0</v>
       </c>
@@ -710,25 +729,29 @@
         <v>0</v>
       </c>
       <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
         <v>950</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="4">
         <v>0</v>
       </c>
@@ -753,360 +776,396 @@
       <c r="M5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4">
         <v>3625.16</v>
       </c>
-      <c r="C6" s="4">
+      <c r="G6" s="4">
         <v>200</v>
       </c>
-      <c r="D6" s="4">
+      <c r="H6" s="4">
         <v>14400</v>
       </c>
-      <c r="E6" s="4">
+      <c r="I6" s="4">
         <v>8550</v>
       </c>
-      <c r="F6" s="4">
+      <c r="J6" s="4">
         <v>7300</v>
       </c>
-      <c r="G6" s="4">
+      <c r="K6" s="4">
         <v>4300</v>
       </c>
-      <c r="H6" s="4">
+      <c r="L6" s="4">
         <v>3100</v>
       </c>
-      <c r="I6" s="4">
+      <c r="M6" s="4">
         <v>500</v>
       </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
         <v>41975.16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>3300</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <v>200</v>
       </c>
-      <c r="G7" s="4">
+      <c r="K7" s="4">
         <v>750</v>
       </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
       <c r="L7" s="4">
         <v>0</v>
       </c>
       <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
         <v>4255</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="4">
         <v>2700</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>550</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
         <v>300</v>
       </c>
-      <c r="G8" s="4">
+      <c r="K8" s="4">
         <v>1259</v>
       </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
       <c r="L8" s="4">
         <v>0</v>
       </c>
       <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
         <v>4809</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="4">
         <v>0</v>
       </c>
       <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
         <v>550</v>
       </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
       <c r="L9" s="4">
         <v>0</v>
       </c>
       <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
         <v>550</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4">
         <v>270</v>
       </c>
-      <c r="C10" s="4">
+      <c r="G10" s="4">
         <v>20</v>
       </c>
-      <c r="D10" s="4">
+      <c r="H10" s="4">
         <v>2220</v>
       </c>
-      <c r="E10" s="4">
+      <c r="I10" s="4">
         <v>250</v>
       </c>
-      <c r="F10" s="4">
+      <c r="J10" s="4">
         <v>3050</v>
       </c>
-      <c r="G10" s="4">
+      <c r="K10" s="4">
         <v>1000</v>
       </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
       <c r="L10" s="4">
         <v>0</v>
       </c>
       <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
         <v>6810</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4">
         <v>25</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <v>5250</v>
       </c>
-      <c r="E11" s="4">
+      <c r="I11" s="4">
         <v>1500</v>
       </c>
-      <c r="F11" s="4">
+      <c r="J11" s="4">
         <v>1550</v>
       </c>
-      <c r="G11" s="4">
+      <c r="K11" s="4">
         <v>450</v>
       </c>
-      <c r="H11" s="4">
+      <c r="L11" s="4">
         <v>500</v>
       </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
       <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
         <v>9275</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4">
-        <v>50</v>
-      </c>
-      <c r="C12" s="4">
-        <v>150</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1800</v>
-      </c>
-      <c r="E12" s="4">
-        <v>50</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="4">
         <v>50</v>
       </c>
       <c r="G12" s="4">
+        <v>150</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1800</v>
+      </c>
+      <c r="I12" s="4">
+        <v>50</v>
+      </c>
+      <c r="J12" s="4">
+        <v>50</v>
+      </c>
+      <c r="K12" s="4">
         <v>550</v>
       </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
       <c r="L12" s="4">
         <v>0</v>
       </c>
       <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
         <v>2650</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
         <v>4019</v>
       </c>
-      <c r="G13" s="4">
+      <c r="K13" s="4">
         <v>150</v>
       </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
       <c r="L13" s="4">
         <v>0</v>
       </c>
       <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
         <v>4169</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="4">
         <v>500</v>
       </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
         <v>500</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
       <c r="I14" s="4">
         <v>0</v>
       </c>
@@ -1120,40 +1179,44 @@
         <v>0</v>
       </c>
       <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="4">
         <v>500</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
         <v>500</v>
       </c>
-      <c r="E15" s="4">
+      <c r="I15" s="4">
         <v>2700</v>
       </c>
-      <c r="F15" s="4">
+      <c r="J15" s="4">
         <v>1250</v>
       </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
       <c r="K15" s="4">
         <v>0</v>
       </c>
@@ -1161,81 +1224,89 @@
         <v>0</v>
       </c>
       <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
         <v>4950</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="4">
         <v>0</v>
       </c>
       <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
         <v>50</v>
       </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
       <c r="L16" s="4">
         <v>0</v>
       </c>
       <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
         <v>2000</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
         <v>1100</v>
       </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
       <c r="K17" s="4">
         <v>0</v>
       </c>
@@ -1243,25 +1314,29 @@
         <v>0</v>
       </c>
       <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="4">
         <v>0</v>
       </c>
@@ -1286,26 +1361,30 @@
       <c r="M18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="4">
         <v>50</v>
       </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
       <c r="G19" s="4">
         <v>0</v>
       </c>
@@ -1325,81 +1404,89 @@
         <v>0</v>
       </c>
       <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
         <v>100</v>
       </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
         <v>100</v>
       </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
       <c r="L20" s="4">
         <v>0</v>
       </c>
       <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
         <v>500</v>
       </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
         <v>100</v>
       </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
       <c r="K21" s="4">
         <v>0</v>
       </c>
@@ -1407,122 +1494,134 @@
         <v>0</v>
       </c>
       <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="4">
         <v>100</v>
       </c>
-      <c r="C22" s="4">
+      <c r="G22" s="4">
         <v>100</v>
       </c>
-      <c r="D22" s="4">
+      <c r="H22" s="4">
         <v>4200</v>
       </c>
-      <c r="E22" s="4">
+      <c r="I22" s="4">
         <v>100</v>
       </c>
-      <c r="F22" s="4">
+      <c r="J22" s="4">
         <v>2150</v>
       </c>
-      <c r="G22" s="4">
+      <c r="K22" s="4">
         <v>150</v>
       </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
       <c r="L22" s="4">
         <v>0</v>
       </c>
       <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
         <v>6800</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
         <v>2700</v>
       </c>
-      <c r="D23" s="4">
+      <c r="H23" s="4">
         <v>2400.09</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
         <v>450</v>
       </c>
-      <c r="G23" s="4">
+      <c r="K23" s="4">
         <v>500</v>
       </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
       <c r="L23" s="4">
         <v>0</v>
       </c>
       <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
         <v>6050.09</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
         <v>100</v>
       </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
         <v>1250</v>
       </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
       <c r="K24" s="4">
         <v>0</v>
       </c>
@@ -1530,40 +1629,44 @@
         <v>0</v>
       </c>
       <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
         <v>1350</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
         <v>750</v>
       </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
       <c r="K25" s="4">
         <v>0</v>
       </c>
@@ -1571,25 +1674,29 @@
         <v>0</v>
       </c>
       <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
         <v>750</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="4">
         <v>0</v>
       </c>
@@ -1614,64 +1721,72 @@
       <c r="M26" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
         <v>100</v>
       </c>
-      <c r="F27" s="4">
+      <c r="J27" s="4">
         <v>500</v>
       </c>
-      <c r="G27" s="4">
+      <c r="K27" s="4">
         <v>50</v>
       </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
-      </c>
       <c r="L27" s="4">
         <v>0</v>
       </c>
       <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
         <v>650</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="4">
         <v>0</v>
       </c>
@@ -1682,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J28" s="4">
         <v>0</v>
@@ -1696,23 +1811,27 @@
       <c r="M28" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="4">
         <v>0</v>
       </c>
@@ -1737,38 +1856,42 @@
       <c r="M29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
         <v>250</v>
       </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
         <v>1250</v>
       </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
       <c r="K30" s="4">
         <v>0</v>
       </c>
@@ -1776,34 +1899,38 @@
         <v>0</v>
       </c>
       <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
         <v>1500</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
         <v>1000</v>
       </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
       <c r="I31" s="4">
         <v>0</v>
       </c>
@@ -1817,40 +1944,44 @@
         <v>0</v>
       </c>
       <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
         <v>1500</v>
       </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
         <v>50</v>
       </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0</v>
-      </c>
       <c r="K32" s="4">
         <v>0</v>
       </c>
@@ -1858,37 +1989,41 @@
         <v>0</v>
       </c>
       <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
         <v>1550</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="4">
         <v>500</v>
       </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
         <v>500</v>
       </c>
-      <c r="E33" s="4">
+      <c r="I33" s="4">
         <v>500</v>
       </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
       <c r="J33" s="4">
         <v>0</v>
       </c>
@@ -1899,107 +2034,119 @@
         <v>0</v>
       </c>
       <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="4">
         <v>1800</v>
       </c>
-      <c r="C34" s="4">
+      <c r="G34" s="4">
         <v>50</v>
       </c>
-      <c r="D34" s="4">
+      <c r="H34" s="4">
         <v>11250</v>
       </c>
-      <c r="E34" s="4">
+      <c r="I34" s="4">
         <v>50</v>
       </c>
-      <c r="F34" s="4">
+      <c r="J34" s="4">
         <v>2175</v>
       </c>
-      <c r="G34" s="4">
+      <c r="K34" s="4">
         <v>4575</v>
       </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
-      </c>
       <c r="L34" s="4">
         <v>0</v>
       </c>
       <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4">
         <v>19900</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="4">
         <v>2400</v>
       </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
         <v>3000</v>
       </c>
-      <c r="E35" s="4">
+      <c r="I35" s="4">
         <v>500</v>
       </c>
-      <c r="F35" s="4">
+      <c r="J35" s="4">
         <v>1950</v>
       </c>
-      <c r="G35" s="4">
+      <c r="K35" s="4">
         <v>2200</v>
       </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0</v>
-      </c>
       <c r="L35" s="4">
         <v>0</v>
       </c>
       <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
         <v>10050</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="4">
-        <v>0</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="4">
         <v>0</v>
       </c>
@@ -2024,73 +2171,81 @@
       <c r="M36" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
         <v>200</v>
       </c>
-      <c r="D37" s="4">
+      <c r="H37" s="4">
         <v>600</v>
       </c>
-      <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
         <v>200</v>
       </c>
-      <c r="G37" s="4">
+      <c r="K37" s="4">
         <v>100</v>
       </c>
-      <c r="H37" s="4">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0</v>
-      </c>
-      <c r="J37" s="4">
-        <v>0</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0</v>
-      </c>
       <c r="L37" s="4">
         <v>0</v>
       </c>
       <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
         <v>1100</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
         <v>500</v>
       </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4">
-        <v>0</v>
-      </c>
       <c r="I38" s="4">
         <v>0</v>
       </c>
@@ -2104,204 +2259,224 @@
         <v>0</v>
       </c>
       <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
         <v>1000</v>
       </c>
-      <c r="D39" s="4">
+      <c r="H39" s="4">
         <v>3625</v>
       </c>
-      <c r="E39" s="4">
+      <c r="I39" s="4">
         <v>1350</v>
       </c>
-      <c r="F39" s="4">
+      <c r="J39" s="4">
         <v>1300</v>
       </c>
-      <c r="G39" s="4">
+      <c r="K39" s="4">
         <v>2950</v>
       </c>
-      <c r="H39" s="4">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4">
-        <v>0</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
-      </c>
       <c r="L39" s="4">
         <v>0</v>
       </c>
       <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
         <v>10225</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
         <v>200</v>
       </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
         <v>850</v>
       </c>
-      <c r="G40" s="4">
+      <c r="K40" s="4">
         <v>250</v>
       </c>
-      <c r="H40" s="4">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
-      </c>
       <c r="L40" s="4">
         <v>0</v>
       </c>
       <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
         <v>1300</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="4">
-        <v>0</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
         <v>250</v>
       </c>
-      <c r="E41" s="4">
+      <c r="I41" s="4">
         <v>500</v>
       </c>
-      <c r="F41" s="4">
+      <c r="J41" s="4">
         <v>100</v>
       </c>
-      <c r="G41" s="4">
+      <c r="K41" s="4">
         <v>100</v>
       </c>
-      <c r="H41" s="4">
-        <v>0</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
-      </c>
       <c r="L41" s="4">
         <v>0</v>
       </c>
       <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4">
         <v>950</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="4">
-        <v>0</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
         <v>1100</v>
       </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
         <v>800</v>
       </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
         <v>100</v>
       </c>
-      <c r="I42" s="4">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
-      </c>
-      <c r="L42" s="4">
-        <v>0</v>
-      </c>
       <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="4">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
         <v>50</v>
       </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
         <v>50</v>
       </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0</v>
-      </c>
       <c r="K43" s="4">
         <v>0</v>
       </c>
@@ -2309,40 +2484,44 @@
         <v>0</v>
       </c>
       <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="4">
-        <v>0</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0</v>
-      </c>
-      <c r="D44" s="4">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
         <v>2000</v>
       </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
         <v>100</v>
       </c>
-      <c r="G44" s="4">
-        <v>0</v>
-      </c>
-      <c r="H44" s="4">
-        <v>0</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
-        <v>0</v>
-      </c>
       <c r="K44" s="4">
         <v>0</v>
       </c>
@@ -2350,66 +2529,74 @@
         <v>0</v>
       </c>
       <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
         <v>2100</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="4">
         <v>550</v>
       </c>
-      <c r="C45" s="4">
+      <c r="G45" s="4">
         <v>50</v>
       </c>
-      <c r="D45" s="4">
+      <c r="H45" s="4">
         <v>5450</v>
       </c>
-      <c r="E45" s="4">
+      <c r="I45" s="4">
         <v>1250</v>
       </c>
-      <c r="F45" s="4">
+      <c r="J45" s="4">
         <v>7800</v>
       </c>
-      <c r="G45" s="4">
+      <c r="K45" s="4">
         <v>1225</v>
       </c>
-      <c r="H45" s="4">
+      <c r="L45" s="4">
         <v>345.16</v>
       </c>
-      <c r="I45" s="4">
+      <c r="M45" s="4">
         <v>400</v>
       </c>
-      <c r="J45" s="4">
-        <v>0</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
-      </c>
-      <c r="L45" s="4">
-        <v>0</v>
-      </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4">
         <v>17070.16</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="4">
-        <v>0</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4">
-        <v>0</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="4">
         <v>0</v>
       </c>
@@ -2434,26 +2621,30 @@
       <c r="M46" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="4">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0</v>
+      </c>
+      <c r="P46" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="4">
         <v>250</v>
       </c>
-      <c r="C47" s="4">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0</v>
-      </c>
       <c r="G47" s="4">
         <v>0</v>
       </c>
@@ -2473,113 +2664,125 @@
         <v>0</v>
       </c>
       <c r="M47" s="4">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+      <c r="O47" s="4">
+        <v>0</v>
+      </c>
+      <c r="P47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="4">
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="4">
         <v>5225</v>
       </c>
-      <c r="C48" s="4">
+      <c r="G48" s="4">
         <v>1250</v>
       </c>
-      <c r="D48" s="4">
+      <c r="H48" s="4">
         <v>13005</v>
       </c>
-      <c r="E48" s="4">
+      <c r="I48" s="4">
         <v>1050</v>
       </c>
-      <c r="F48" s="4">
+      <c r="J48" s="4">
         <v>15125</v>
       </c>
-      <c r="G48" s="4">
+      <c r="K48" s="4">
         <v>6050</v>
       </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
         <v>1000</v>
       </c>
-      <c r="J48" s="4">
-        <v>0</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0</v>
-      </c>
-      <c r="L48" s="4">
-        <v>0</v>
-      </c>
-      <c r="M48" s="4">
+      <c r="N48" s="4">
+        <v>0</v>
+      </c>
+      <c r="O48" s="4">
+        <v>0</v>
+      </c>
+      <c r="P48" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="4">
         <v>42705</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="4">
-        <v>0</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0</v>
-      </c>
-      <c r="D49" s="4">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
         <v>6400</v>
       </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
         <v>2950</v>
       </c>
-      <c r="G49" s="4">
+      <c r="K49" s="4">
         <v>400</v>
       </c>
-      <c r="H49" s="4">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
         <v>100</v>
       </c>
-      <c r="J49" s="4">
-        <v>0</v>
-      </c>
-      <c r="K49" s="4">
-        <v>0</v>
-      </c>
-      <c r="L49" s="4">
-        <v>0</v>
-      </c>
-      <c r="M49" s="4">
+      <c r="N49" s="4">
+        <v>0</v>
+      </c>
+      <c r="O49" s="4">
+        <v>0</v>
+      </c>
+      <c r="P49" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="4">
         <v>9850</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="4">
-        <v>0</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
         <v>1000</v>
       </c>
-      <c r="D50" s="4">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4">
-        <v>0</v>
-      </c>
       <c r="H50" s="4">
         <v>0</v>
       </c>
@@ -2596,40 +2799,44 @@
         <v>0</v>
       </c>
       <c r="M50" s="4">
+        <v>0</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0</v>
+      </c>
+      <c r="O50" s="4">
+        <v>0</v>
+      </c>
+      <c r="P50" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="4">
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="4">
-        <v>0</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
         <v>300</v>
       </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
         <v>750</v>
       </c>
-      <c r="G51" s="4">
-        <v>0</v>
-      </c>
-      <c r="H51" s="4">
-        <v>0</v>
-      </c>
-      <c r="I51" s="4">
-        <v>0</v>
-      </c>
-      <c r="J51" s="4">
-        <v>0</v>
-      </c>
       <c r="K51" s="4">
         <v>0</v>
       </c>
@@ -2637,40 +2844,44 @@
         <v>0</v>
       </c>
       <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" s="4">
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4">
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="4">
-        <v>0</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0</v>
-      </c>
-      <c r="E52" s="4">
-        <v>0</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
       <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
         <v>350</v>
       </c>
-      <c r="G52" s="4">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4">
-        <v>0</v>
-      </c>
       <c r="K52" s="4">
         <v>0</v>
       </c>
@@ -2678,14 +2889,22 @@
         <v>0</v>
       </c>
       <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0</v>
+      </c>
+      <c r="P52" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="4">
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -2694,6 +2913,10 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GoodCSVs/JamesWebb.xlsx
+++ b/data/GoodCSVs/JamesWebb.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\campaign-contributions\data\GoodCSVs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -540,7 +545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -551,7 +556,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,10 +618,18 @@
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>500</v>
+      </c>
       <c r="F2" s="4">
         <v>0</v>
       </c>
@@ -651,17 +664,25 @@
         <v>0</v>
       </c>
       <c r="Q2" s="4">
-        <v>150</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
@@ -703,10 +724,18 @@
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>500</v>
+      </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
@@ -741,17 +770,25 @@
         <v>0</v>
       </c>
       <c r="Q4" s="4">
-        <v>950</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
@@ -793,10 +830,18 @@
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>600</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4300</v>
+      </c>
+      <c r="E6" s="4">
+        <v>16893</v>
+      </c>
       <c r="F6" s="4">
         <v>3625.16</v>
       </c>
@@ -831,17 +876,25 @@
         <v>0</v>
       </c>
       <c r="Q6" s="4">
-        <v>41975.16</v>
+        <v>64768.160000000003</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2700</v>
+      </c>
+      <c r="E7" s="4">
+        <v>750</v>
+      </c>
       <c r="F7" s="4">
         <v>5</v>
       </c>
@@ -876,17 +929,25 @@
         <v>0</v>
       </c>
       <c r="Q7" s="4">
-        <v>4255</v>
+        <v>7705</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1250</v>
+      </c>
       <c r="F8" s="4">
         <v>2700</v>
       </c>
@@ -921,17 +982,25 @@
         <v>0</v>
       </c>
       <c r="Q8" s="4">
-        <v>4809</v>
+        <v>6059</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>500</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
       <c r="F9" s="4">
         <v>0</v>
       </c>
@@ -966,17 +1035,25 @@
         <v>0</v>
       </c>
       <c r="Q9" s="4">
-        <v>550</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>320</v>
+      </c>
       <c r="F10" s="4">
         <v>270</v>
       </c>
@@ -1011,17 +1088,25 @@
         <v>0</v>
       </c>
       <c r="Q10" s="4">
-        <v>6810</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="4">
+        <v>500</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="4">
+        <v>500</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1000</v>
+      </c>
       <c r="F11" s="4">
         <v>25</v>
       </c>
@@ -1056,17 +1141,25 @@
         <v>0</v>
       </c>
       <c r="Q11" s="4">
-        <v>9275</v>
+        <v>12275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>50</v>
+      </c>
       <c r="F12" s="4">
         <v>50</v>
       </c>
@@ -1101,17 +1194,25 @@
         <v>0</v>
       </c>
       <c r="Q12" s="4">
-        <v>2650</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
       <c r="F13" s="4">
         <v>0</v>
       </c>
@@ -1153,10 +1254,18 @@
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
       <c r="F14" s="4">
         <v>500</v>
       </c>
@@ -1198,10 +1307,18 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2700</v>
+      </c>
       <c r="F15" s="4">
         <v>500</v>
       </c>
@@ -1236,17 +1353,25 @@
         <v>0</v>
       </c>
       <c r="Q15" s="4">
-        <v>4950</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
       <c r="F16" s="4">
         <v>0</v>
       </c>
@@ -1288,10 +1413,18 @@
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
       <c r="F17" s="4">
         <v>0</v>
       </c>
@@ -1333,10 +1466,18 @@
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
       <c r="F18" s="4">
         <v>0</v>
       </c>
@@ -1378,10 +1519,18 @@
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1200</v>
+      </c>
       <c r="F19" s="4">
         <v>50</v>
       </c>
@@ -1416,17 +1565,25 @@
         <v>0</v>
       </c>
       <c r="Q19" s="4">
-        <v>50</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
       <c r="F20" s="4">
         <v>0</v>
       </c>
@@ -1468,10 +1625,18 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>500</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1100</v>
+      </c>
       <c r="F21" s="4">
         <v>0</v>
       </c>
@@ -1506,17 +1671,25 @@
         <v>0</v>
       </c>
       <c r="Q21" s="4">
-        <v>600</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1100</v>
+      </c>
+      <c r="D22" s="4">
+        <v>100</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1200</v>
+      </c>
       <c r="F22" s="4">
         <v>100</v>
       </c>
@@ -1551,17 +1724,25 @@
         <v>0</v>
       </c>
       <c r="Q22" s="4">
-        <v>6800</v>
+        <v>10550</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3200</v>
+      </c>
       <c r="F23" s="4">
         <v>0</v>
       </c>
@@ -1596,17 +1777,25 @@
         <v>0</v>
       </c>
       <c r="Q23" s="4">
-        <v>6050.09</v>
+        <v>9250.09</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>200</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>250</v>
+      </c>
       <c r="F24" s="4">
         <v>0</v>
       </c>
@@ -1641,17 +1830,25 @@
         <v>0</v>
       </c>
       <c r="Q24" s="4">
-        <v>1350</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
       <c r="F25" s="4">
         <v>0</v>
       </c>
@@ -1693,10 +1890,18 @@
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
       <c r="F26" s="4">
         <v>0</v>
       </c>
@@ -1738,10 +1943,18 @@
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="4">
+        <v>5200</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
       <c r="F27" s="4">
         <v>0</v>
       </c>
@@ -1776,17 +1989,25 @@
         <v>0</v>
       </c>
       <c r="Q27" s="4">
-        <v>650</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
       <c r="F28" s="4">
         <v>0</v>
       </c>
@@ -1828,10 +2049,18 @@
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
       <c r="F29" s="4">
         <v>0</v>
       </c>
@@ -1873,10 +2102,18 @@
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="B30" s="4">
+        <v>500</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>500</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1000</v>
+      </c>
       <c r="F30" s="4">
         <v>0</v>
       </c>
@@ -1911,17 +2148,25 @@
         <v>0</v>
       </c>
       <c r="Q30" s="4">
-        <v>1500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
       <c r="F31" s="4">
         <v>0</v>
       </c>
@@ -1963,10 +2208,18 @@
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2600</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>250</v>
+      </c>
       <c r="F32" s="4">
         <v>0</v>
       </c>
@@ -2001,17 +2254,25 @@
         <v>0</v>
       </c>
       <c r="Q32" s="4">
-        <v>1550</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
       <c r="F33" s="4">
         <v>500</v>
       </c>
@@ -2053,10 +2314,18 @@
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2600</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2050</v>
+      </c>
       <c r="F34" s="4">
         <v>1800</v>
       </c>
@@ -2091,17 +2360,25 @@
         <v>0</v>
       </c>
       <c r="Q34" s="4">
-        <v>19900</v>
+        <v>26050</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>500</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>500</v>
+      </c>
       <c r="F35" s="4">
         <v>2400</v>
       </c>
@@ -2136,17 +2413,25 @@
         <v>0</v>
       </c>
       <c r="Q35" s="4">
-        <v>10050</v>
+        <v>11050</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
       <c r="F36" s="4">
         <v>0</v>
       </c>
@@ -2188,10 +2473,18 @@
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>500</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1000</v>
+      </c>
       <c r="F37" s="4">
         <v>0</v>
       </c>
@@ -2226,17 +2519,25 @@
         <v>0</v>
       </c>
       <c r="Q37" s="4">
-        <v>1100</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>100</v>
+      </c>
       <c r="F38" s="4">
         <v>0</v>
       </c>
@@ -2271,17 +2572,25 @@
         <v>0</v>
       </c>
       <c r="Q38" s="4">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2500</v>
+      </c>
       <c r="F39" s="4">
         <v>0</v>
       </c>
@@ -2316,17 +2625,25 @@
         <v>0</v>
       </c>
       <c r="Q39" s="4">
-        <v>10225</v>
+        <v>13725</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2600</v>
+      </c>
+      <c r="E40" s="4">
+        <v>250</v>
+      </c>
       <c r="F40" s="4">
         <v>0</v>
       </c>
@@ -2361,17 +2678,25 @@
         <v>0</v>
       </c>
       <c r="Q40" s="4">
-        <v>1300</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
       <c r="F41" s="4">
         <v>0</v>
       </c>
@@ -2413,10 +2738,18 @@
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
       <c r="F42" s="4">
         <v>0</v>
       </c>
@@ -2458,10 +2791,18 @@
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>100</v>
+      </c>
+      <c r="E43" s="4">
+        <v>100</v>
+      </c>
       <c r="F43" s="4">
         <v>0</v>
       </c>
@@ -2496,17 +2837,25 @@
         <v>0</v>
       </c>
       <c r="Q43" s="4">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1000</v>
+      </c>
       <c r="F44" s="4">
         <v>0</v>
       </c>
@@ -2541,17 +2890,25 @@
         <v>0</v>
       </c>
       <c r="Q44" s="4">
-        <v>2100</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="B45" s="4">
+        <v>3325</v>
+      </c>
+      <c r="C45" s="4">
+        <v>3600</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1050</v>
+      </c>
       <c r="F45" s="4">
         <v>550</v>
       </c>
@@ -2586,17 +2943,25 @@
         <v>0</v>
       </c>
       <c r="Q45" s="4">
-        <v>17070.16</v>
+        <v>27045.16</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
       <c r="F46" s="4">
         <v>0</v>
       </c>
@@ -2638,10 +3003,18 @@
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
       <c r="F47" s="4">
         <v>250</v>
       </c>
@@ -2683,10 +3056,18 @@
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="B48" s="4">
+        <v>200</v>
+      </c>
+      <c r="C48" s="4">
+        <v>5750</v>
+      </c>
+      <c r="D48" s="4">
+        <v>8725</v>
+      </c>
+      <c r="E48" s="4">
+        <v>15025</v>
+      </c>
       <c r="F48" s="4">
         <v>5225</v>
       </c>
@@ -2721,17 +3102,25 @@
         <v>0</v>
       </c>
       <c r="Q48" s="4">
-        <v>42705</v>
+        <v>72405</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>500</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1300</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1200</v>
+      </c>
       <c r="F49" s="4">
         <v>0</v>
       </c>
@@ -2766,17 +3155,25 @@
         <v>0</v>
       </c>
       <c r="Q49" s="4">
-        <v>9850</v>
+        <v>12850</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
       <c r="F50" s="4">
         <v>0</v>
       </c>
@@ -2818,10 +3215,18 @@
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
       <c r="F51" s="4">
         <v>0</v>
       </c>
@@ -2863,10 +3268,18 @@
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="B52" s="4">
+        <v>500</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
       <c r="F52" s="4">
         <v>0</v>
       </c>
@@ -2901,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="4">
-        <v>350</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -2920,5 +3333,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>